--- a/Hometown Scenario.xlsx
+++ b/Hometown Scenario.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094D2B1B-5D38-43C3-974A-43C50C1B3B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Functional" sheetId="1" r:id="rId1"/>
@@ -18,51 +12,18 @@
     <sheet name="globalisation testing" sheetId="4" r:id="rId3"/>
     <sheet name="End to end " sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>CBT</author>
-  </authors>
-  <commentList>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>CBT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="269">
   <si>
     <t>Sl no</t>
   </si>
@@ -1161,12 +1122,18 @@
   <si>
     <t>intenalisation</t>
   </si>
+  <si>
+    <t>Login/logkn</t>
+  </si>
+  <si>
+    <t>Login/login</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,19 +1163,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -1291,7 +1245,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1564,32 +1518,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" customWidth="1"/>
-    <col min="7" max="13" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="13" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1627,7 +1581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="90">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1663,12 +1617,12 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="105">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1699,12 +1653,12 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="105">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>268</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
@@ -1735,7 +1689,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="75">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1771,7 +1725,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="90">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1807,7 +1761,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="90">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1843,7 +1797,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="90">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1879,7 +1833,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="75">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1915,7 +1869,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="75">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1951,7 +1905,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="75">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1987,7 +1941,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="90">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2023,7 +1977,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="90">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2059,7 +2013,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="75">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2095,7 +2049,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="75">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2131,7 +2085,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="75">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2167,7 +2121,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="75">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2203,7 +2157,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="75">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2239,7 +2193,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="75">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2275,7 +2229,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="90">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2311,7 +2265,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="75">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2354,25 +2308,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
     <col min="13" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="30">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2419,7 +2373,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="165">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2451,7 +2405,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="135">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2483,7 +2437,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="150">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2515,7 +2469,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="180">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2547,7 +2501,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="180">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2579,7 +2533,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="120">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2611,7 +2565,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="105">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2643,7 +2597,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="135">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2675,7 +2629,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="135">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2707,7 +2661,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="135">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2739,7 +2693,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2753,7 +2707,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2767,7 +2721,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2781,7 +2735,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2795,7 +2749,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2809,7 +2763,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2823,7 +2777,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2837,7 +2791,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2851,7 +2805,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2865,7 +2819,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2879,7 +2833,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2893,7 +2847,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2907,7 +2861,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2921,7 +2875,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2935,7 +2889,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2949,7 +2903,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2963,7 +2917,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2977,7 +2931,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2994,31 +2948,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9FBD3F-B2A1-4743-A593-FD7FB3807004}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>266</v>
       </c>
@@ -3030,30 +2983,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B56" sqref="B52:B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="53.5546875" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="53.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="30">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3100,7 +3053,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="330">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3132,7 +3085,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="285">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3164,7 +3117,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="345">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3196,7 +3149,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="345">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3228,7 +3181,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="300">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3260,7 +3213,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="409.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3292,7 +3245,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="409.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3324,7 +3277,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="330">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3356,7 +3309,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="409.5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3388,7 +3341,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="409.5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3420,7 +3373,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="216" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="240">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3452,7 +3405,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="360">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3484,7 +3437,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="315">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3516,7 +3469,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="390">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3548,7 +3501,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="360" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="405">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3580,7 +3533,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="360">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3612,7 +3565,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="405">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3644,7 +3597,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="345">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3676,7 +3629,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="409.5" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3708,7 +3661,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="409.5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3740,7 +3693,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="409.5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3770,7 +3723,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="409.5">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3802,7 +3755,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="360">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3834,7 +3787,7 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="360" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="405">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3862,7 +3815,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="301.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="301.5" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3890,7 +3843,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="44.25" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3920,7 +3873,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3936,7 +3889,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3950,7 +3903,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3964,7 +3917,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3978,7 +3931,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3992,7 +3945,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4006,7 +3959,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4020,7 +3973,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>

--- a/Hometown Scenario.xlsx
+++ b/Hometown Scenario.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Desktop\git_pract\lasttry\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D901E39D-41E0-42A8-A1EE-CECBA5389B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional" sheetId="1" r:id="rId1"/>
@@ -13,9 +19,8 @@
     <sheet name="End to end " sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1123,17 +1128,17 @@
     <t>intenalisation</t>
   </si>
   <si>
-    <t>Login/logkn</t>
-  </si>
-  <si>
-    <t>Login/login</t>
+    <t>Login/logkn  d by amit</t>
+  </si>
+  <si>
+    <t>Login/login by amit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1518,32 +1523,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="13" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="7" max="13" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="90">
+    <row r="2" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1617,7 +1622,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="105">
+    <row r="3" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1653,7 +1658,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="105">
+    <row r="4" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1689,7 +1694,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="75">
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1725,7 +1730,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="90">
+    <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1761,7 +1766,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="90">
+    <row r="7" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1797,7 +1802,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="90">
+    <row r="8" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1833,7 +1838,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="75">
+    <row r="9" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1869,7 +1874,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="75">
+    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1905,7 +1910,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="75">
+    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1941,7 +1946,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="90">
+    <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1977,7 +1982,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="90">
+    <row r="13" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2013,7 +2018,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="75">
+    <row r="14" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2049,7 +2054,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="75">
+    <row r="15" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2085,7 +2090,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" ht="75">
+    <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2121,7 +2126,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="75">
+    <row r="17" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2157,7 +2162,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="75">
+    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2193,7 +2198,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="75">
+    <row r="19" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2229,7 +2234,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="90">
+    <row r="20" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2265,7 +2270,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="75">
+    <row r="21" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2308,25 +2313,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
     <col min="13" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2373,7 +2378,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="165">
+    <row r="2" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2405,7 +2410,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="135">
+    <row r="3" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2437,7 +2442,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="150">
+    <row r="4" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2469,7 +2474,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="180">
+    <row r="5" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2501,7 +2506,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="180">
+    <row r="6" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2533,7 +2538,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="120">
+    <row r="7" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2565,7 +2570,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="105">
+    <row r="8" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2597,7 +2602,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="135">
+    <row r="9" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2629,7 +2634,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="135">
+    <row r="10" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2661,7 +2666,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="135">
+    <row r="11" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2693,7 +2698,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2707,7 +2712,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2721,7 +2726,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2735,7 +2740,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2749,7 +2754,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2763,7 +2768,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2777,7 +2782,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2791,7 +2796,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2805,7 +2810,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2819,7 +2824,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2833,7 +2838,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2847,7 +2852,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2861,7 +2866,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2875,7 +2880,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2889,7 +2894,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2903,7 +2908,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2917,7 +2922,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2931,7 +2936,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2952,26 +2957,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>266</v>
       </c>
@@ -2983,30 +2988,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B56" sqref="B52:B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="53.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="53.5546875" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3053,7 +3058,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="330">
+    <row r="2" spans="1:15" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3085,7 +3090,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="285">
+    <row r="3" spans="1:15" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3117,7 +3122,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="345">
+    <row r="4" spans="1:15" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3149,7 +3154,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="345">
+    <row r="5" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3181,7 +3186,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="300">
+    <row r="6" spans="1:15" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3213,7 +3218,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="409.5">
+    <row r="7" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3245,7 +3250,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="409.5">
+    <row r="8" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3277,7 +3282,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="330">
+    <row r="9" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3309,7 +3314,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="409.5">
+    <row r="10" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3341,7 +3346,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="409.5">
+    <row r="11" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3373,7 +3378,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="240">
+    <row r="12" spans="1:15" ht="216" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3405,7 +3410,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="360">
+    <row r="13" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3437,7 +3442,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="315">
+    <row r="14" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3469,7 +3474,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="390">
+    <row r="15" spans="1:15" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3501,7 +3506,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="405">
+    <row r="16" spans="1:15" ht="360" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3533,7 +3538,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="360">
+    <row r="17" spans="1:12" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3565,7 +3570,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="405">
+    <row r="18" spans="1:12" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3597,7 +3602,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="345">
+    <row r="19" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3629,7 +3634,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="409.5" customHeight="1">
+    <row r="20" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3661,7 +3666,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="409.5">
+    <row r="21" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3693,7 +3698,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="409.5">
+    <row r="22" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3723,7 +3728,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="409.5">
+    <row r="23" spans="1:12" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3755,7 +3760,7 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="360">
+    <row r="24" spans="1:12" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3787,7 +3792,7 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="405">
+    <row r="25" spans="1:12" ht="360" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3815,7 +3820,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="301.5" customHeight="1">
+    <row r="26" spans="1:12" ht="301.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3843,7 +3848,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="44.25" customHeight="1">
+    <row r="27" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3873,7 +3878,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3889,7 +3894,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3903,7 +3908,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3917,7 +3922,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3931,7 +3936,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3945,7 +3950,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3959,7 +3964,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3973,7 +3978,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>

--- a/Hometown Scenario.xlsx
+++ b/Hometown Scenario.xlsx
@@ -13,7 +13,6 @@
     <sheet name="End to end " sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="270">
   <si>
     <t>Sl no</t>
   </si>
@@ -1127,6 +1126,9 @@
   </si>
   <si>
     <t>Login/login</t>
+  </si>
+  <si>
+    <t>Help/login</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1528,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1946,7 +1948,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>269</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>60</v>
@@ -1982,7 +1984,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>269</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>64</v>

--- a/Hometown Scenario.xlsx
+++ b/Hometown Scenario.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Desktop\git_pract\lasttry\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015B6345-8684-4121-82E7-A3BB49AC9EA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional" sheetId="1" r:id="rId1"/>
@@ -13,8 +19,8 @@
     <sheet name="End to end " sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -79,9 +85,6 @@
   </si>
   <si>
     <t>Login</t>
-  </si>
-  <si>
-    <t>SignUP</t>
   </si>
   <si>
     <t>User has a valid credentials</t>
@@ -1130,12 +1133,15 @@
   <si>
     <t>Design &amp; Build/llogin</t>
   </si>
+  <si>
+    <t>SignUP by amit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1520,32 +1526,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="13" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="7" max="13" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1583,12 +1589,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="90">
+    <row r="2" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1600,16 +1606,16 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>16</v>
@@ -1619,12 +1625,12 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="105">
+    <row r="3" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1633,16 +1639,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>15</v>
@@ -1655,33 +1661,33 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="105">
+    <row r="4" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>16</v>
@@ -1691,12 +1697,12 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="75">
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1705,19 +1711,19 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>16</v>
@@ -1727,33 +1733,33 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="90">
+    <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>16</v>
@@ -1763,33 +1769,33 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="90">
+    <row r="7" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>16</v>
@@ -1799,33 +1805,33 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="90">
+    <row r="8" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>16</v>
@@ -1835,33 +1841,33 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="75">
+    <row r="9" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>16</v>
@@ -1871,33 +1877,33 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="75">
+    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>16</v>
@@ -1907,33 +1913,33 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="75">
+    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>16</v>
@@ -1943,33 +1949,33 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="90">
+    <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>16</v>
@@ -1979,33 +1985,33 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="90">
+    <row r="13" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>16</v>
@@ -2015,33 +2021,33 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="75">
+    <row r="14" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>16</v>
@@ -2051,12 +2057,12 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="75">
+    <row r="15" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -2065,19 +2071,19 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>16</v>
@@ -2087,12 +2093,12 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" ht="75">
+    <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
@@ -2101,19 +2107,19 @@
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>16</v>
@@ -2123,12 +2129,12 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="75">
+    <row r="17" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -2137,19 +2143,19 @@
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>16</v>
@@ -2159,33 +2165,33 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="75">
+    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>16</v>
@@ -2195,33 +2201,33 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="75">
+    <row r="19" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>16</v>
@@ -2231,33 +2237,33 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="90">
+    <row r="20" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>16</v>
@@ -2267,12 +2273,12 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="75">
+    <row r="21" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -2281,19 +2287,19 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>16</v>
@@ -2310,25 +2316,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
     <col min="13" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2366,21 +2372,21 @@
         <v>9</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="165">
+    </row>
+    <row r="2" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2392,13 +2398,13 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -2407,30 +2413,30 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="135">
+    <row r="3" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -2439,30 +2445,30 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="150">
+    <row r="4" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -2471,30 +2477,30 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="180">
+    <row r="5" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -2503,30 +2509,30 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="180">
+    <row r="6" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -2535,30 +2541,30 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="120">
+    <row r="7" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -2567,30 +2573,30 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="105">
+    <row r="8" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2599,30 +2605,30 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="135">
+    <row r="9" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -2631,30 +2637,30 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="135">
+    <row r="10" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2663,12 +2669,12 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="135">
+    <row r="11" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -2677,16 +2683,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2695,7 +2701,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2709,7 +2715,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2723,7 +2729,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2737,7 +2743,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2751,7 +2757,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2765,7 +2771,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2779,7 +2785,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2793,7 +2799,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2807,7 +2813,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2821,7 +2827,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2835,7 +2841,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2849,7 +2855,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2863,7 +2869,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2877,7 +2883,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2891,7 +2897,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2905,7 +2911,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2919,7 +2925,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2933,7 +2939,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2954,28 +2960,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2985,30 +2991,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B56" sqref="B52:B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="53.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="53.5546875" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3046,21 +3052,21 @@
         <v>9</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="330">
+    </row>
+    <row r="2" spans="1:15" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -3069,16 +3075,16 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -3087,12 +3093,12 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="285">
+    <row r="3" spans="1:15" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -3101,16 +3107,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -3119,30 +3125,30 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="345">
+    <row r="4" spans="1:15" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -3151,12 +3157,12 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="345">
+    <row r="5" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -3165,16 +3171,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -3183,30 +3189,30 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="300">
+    <row r="6" spans="1:15" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -3215,30 +3221,30 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="409.5">
+    <row r="7" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -3247,12 +3253,12 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="409.5">
+    <row r="8" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -3261,16 +3267,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -3279,30 +3285,30 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="330">
+    <row r="9" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -3311,12 +3317,12 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="409.5">
+    <row r="10" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -3325,16 +3331,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -3343,30 +3349,30 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="409.5">
+    <row r="11" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -3375,30 +3381,30 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="240">
+    <row r="12" spans="1:15" ht="216" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -3407,30 +3413,30 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="360">
+    <row r="13" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -3439,12 +3445,12 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="315">
+    <row r="14" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -3453,16 +3459,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -3471,12 +3477,12 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="390">
+    <row r="15" spans="1:15" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -3485,16 +3491,16 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -3503,12 +3509,12 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="405">
+    <row r="16" spans="1:15" ht="360" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
@@ -3517,16 +3523,16 @@
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -3535,30 +3541,30 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="360">
+    <row r="17" spans="1:12" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -3567,30 +3573,30 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="405">
+    <row r="18" spans="1:12" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -3599,30 +3605,30 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="345">
+    <row r="19" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -3631,12 +3637,12 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="409.5" customHeight="1">
+    <row r="20" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -3645,16 +3651,16 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -3663,12 +3669,12 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="409.5">
+    <row r="21" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -3677,16 +3683,16 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -3695,27 +3701,27 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="409.5">
+    <row r="22" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="G22" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -3725,30 +3731,30 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="409.5">
+    <row r="23" spans="1:12" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -3757,30 +3763,30 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="360">
+    <row r="24" spans="1:12" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -3789,26 +3795,26 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="405">
+    <row r="25" spans="1:12" ht="360" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="G25" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -3817,12 +3823,12 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="301.5" customHeight="1">
+    <row r="26" spans="1:12" ht="301.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -3831,13 +3837,13 @@
         <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -3845,37 +3851,37 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="44.25" customHeight="1">
+    <row r="27" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3891,7 +3897,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3905,7 +3911,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3919,7 +3925,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3933,7 +3939,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3947,7 +3953,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3961,7 +3967,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3975,7 +3981,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>

--- a/Hometown Scenario.xlsx
+++ b/Hometown Scenario.xlsx
@@ -291,9 +291,6 @@
     <t>Tableware page is displayed with valid data</t>
   </si>
   <si>
-    <t>Kitchware</t>
-  </si>
-  <si>
     <t>To verify that Kitchenware page is displayed</t>
   </si>
   <si>
@@ -1129,6 +1126,9 @@
   </si>
   <si>
     <t>Design &amp; Build/llogin</t>
+  </si>
+  <si>
+    <t>Kitchware/login</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1530,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1603,7 +1603,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>23</v>
@@ -1624,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1639,7 +1639,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>22</v>
@@ -1660,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
@@ -1675,7 +1675,7 @@
         <v>26</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>27</v>
@@ -1705,13 +1705,13 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>31</v>
@@ -1741,13 +1741,13 @@
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>36</v>
@@ -1777,13 +1777,13 @@
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>39</v>
@@ -1813,13 +1813,13 @@
         <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>44</v>
@@ -1849,13 +1849,13 @@
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>48</v>
@@ -1885,13 +1885,13 @@
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>55</v>
@@ -1921,13 +1921,13 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>61</v>
@@ -1948,7 +1948,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>60</v>
@@ -1957,13 +1957,13 @@
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>62</v>
@@ -1984,7 +1984,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>64</v>
@@ -1993,13 +1993,13 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>73</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>65</v>
@@ -2029,13 +2029,13 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>72</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>68</v>
@@ -2065,13 +2065,13 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>75</v>
@@ -2101,13 +2101,13 @@
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>79</v>
@@ -2137,13 +2137,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>83</v>
@@ -2173,13 +2173,13 @@
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>86</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>87</v>
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>269</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>46</v>
@@ -2209,19 +2209,19 @@
         <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>16</v>
@@ -2239,25 +2239,25 @@
         <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>16</v>
@@ -2272,7 +2272,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -2281,19 +2281,19 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>16</v>
@@ -2366,13 +2366,13 @@
         <v>9</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="165">
@@ -2380,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2392,13 +2392,13 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -2412,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>46</v>
@@ -2421,16 +2421,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -2444,7 +2444,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>46</v>
@@ -2453,16 +2453,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -2476,7 +2476,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>46</v>
@@ -2485,16 +2485,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -2508,7 +2508,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>46</v>
@@ -2517,16 +2517,16 @@
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -2540,7 +2540,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>46</v>
@@ -2549,16 +2549,16 @@
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -2581,16 +2581,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2613,16 +2613,16 @@
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -2636,7 +2636,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>46</v>
@@ -2645,16 +2645,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2677,16 +2677,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2965,17 +2965,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3046,13 +3046,13 @@
         <v>9</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="330">
@@ -3060,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -3069,16 +3069,16 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -3092,7 +3092,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -3101,16 +3101,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -3124,7 +3124,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>46</v>
@@ -3133,16 +3133,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -3156,7 +3156,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -3165,16 +3165,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -3188,25 +3188,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -3220,25 +3220,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -3252,7 +3252,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -3261,16 +3261,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -3284,7 +3284,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
@@ -3293,16 +3293,16 @@
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -3316,7 +3316,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -3325,16 +3325,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -3357,16 +3357,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -3389,16 +3389,16 @@
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -3412,7 +3412,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>46</v>
@@ -3421,16 +3421,16 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -3444,7 +3444,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -3453,16 +3453,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -3476,7 +3476,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -3485,16 +3485,16 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -3508,7 +3508,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
@@ -3517,16 +3517,16 @@
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -3540,25 +3540,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -3572,25 +3572,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -3607,22 +3607,22 @@
         <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -3636,7 +3636,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -3645,16 +3645,16 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -3677,16 +3677,16 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -3700,7 +3700,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>46</v>
@@ -3709,13 +3709,13 @@
         <v>13</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -3730,25 +3730,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -3762,7 +3762,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>46</v>
@@ -3771,16 +3771,16 @@
         <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -3794,21 +3794,21 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="G25" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -3822,7 +3822,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -3831,13 +3831,13 @@
         <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -3850,7 +3850,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>46</v>
@@ -3859,16 +3859,16 @@
         <v>13</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>

--- a/Hometown Scenario.xlsx
+++ b/Hometown Scenario.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094D2B1B-5D38-43C3-974A-43C50C1B3B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Functional" sheetId="1" r:id="rId1"/>
@@ -18,51 +12,18 @@
     <sheet name="globalisation testing" sheetId="4" r:id="rId3"/>
     <sheet name="End to end " sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>CBT</author>
-  </authors>
-  <commentList>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>CBT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="268">
   <si>
     <t>Sl no</t>
   </si>
@@ -119,9 +80,6 @@
   </si>
   <si>
     <t>Login</t>
-  </si>
-  <si>
-    <t>SignUP</t>
   </si>
   <si>
     <t>User has a valid credentials</t>
@@ -1161,12 +1119,18 @@
   <si>
     <t>intenalisation</t>
   </si>
+  <si>
+    <t>SignUP/login</t>
+  </si>
+  <si>
+    <t>Login/login</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,19 +1160,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -1291,7 +1242,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1564,32 +1515,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" customWidth="1"/>
-    <col min="7" max="13" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="13" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1627,12 +1578,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="90">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1644,16 +1595,16 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>16</v>
@@ -1663,12 +1614,12 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="105">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1677,16 +1628,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>15</v>
@@ -1699,33 +1650,33 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="105">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>16</v>
@@ -1735,12 +1686,12 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="75">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1749,19 +1700,19 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>16</v>
@@ -1771,33 +1722,33 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="90">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>16</v>
@@ -1807,33 +1758,33 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="90">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>16</v>
@@ -1843,33 +1794,33 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="90">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>16</v>
@@ -1879,33 +1830,33 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="75">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>16</v>
@@ -1915,33 +1866,33 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="75">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>16</v>
@@ -1951,33 +1902,33 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="75">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>16</v>
@@ -1987,33 +1938,33 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="90">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>16</v>
@@ -2023,33 +1974,33 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="90">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>16</v>
@@ -2059,33 +2010,33 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="75">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>16</v>
@@ -2095,12 +2046,12 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="75">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -2109,19 +2060,19 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>16</v>
@@ -2131,12 +2082,12 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="75">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
@@ -2145,19 +2096,19 @@
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>16</v>
@@ -2167,12 +2118,12 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="75">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -2181,19 +2132,19 @@
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>16</v>
@@ -2203,33 +2154,33 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="75">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>16</v>
@@ -2239,33 +2190,33 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="75">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>16</v>
@@ -2275,33 +2226,33 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="90">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>16</v>
@@ -2311,12 +2262,12 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="75">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -2325,19 +2276,19 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>16</v>
@@ -2354,25 +2305,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
     <col min="13" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="30">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2410,21 +2361,21 @@
         <v>9</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" ht="165">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2436,13 +2387,13 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -2451,30 +2402,30 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="135">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -2483,30 +2434,30 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="150">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -2515,30 +2466,30 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="180">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -2547,30 +2498,30 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="180">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -2579,30 +2530,30 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="120">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -2611,30 +2562,30 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="105">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2643,30 +2594,30 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="135">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -2675,30 +2626,30 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="135">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2707,12 +2658,12 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="135">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -2721,16 +2672,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2739,7 +2690,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2753,7 +2704,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2767,7 +2718,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2781,7 +2732,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2795,7 +2746,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2809,7 +2760,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2823,7 +2774,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2837,7 +2788,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2851,7 +2802,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2865,7 +2816,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2879,7 +2830,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2893,7 +2844,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2907,7 +2858,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2921,7 +2872,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2935,7 +2886,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2949,7 +2900,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2963,7 +2914,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2977,7 +2928,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2994,33 +2945,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9FBD3F-B2A1-4743-A593-FD7FB3807004}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3030,30 +2980,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B56" sqref="B52:B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="53.5546875" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="53.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="30">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3091,21 +3041,21 @@
         <v>9</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="316.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" ht="330">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -3114,16 +3064,16 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -3132,12 +3082,12 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="285">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -3146,16 +3096,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -3164,30 +3114,30 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="345">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -3196,12 +3146,12 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="345">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -3210,16 +3160,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -3228,30 +3178,30 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="300">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -3260,30 +3210,30 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="409.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -3292,12 +3242,12 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="409.5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -3306,16 +3256,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -3324,30 +3274,30 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="330">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -3356,12 +3306,12 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="409.5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -3370,16 +3320,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -3388,30 +3338,30 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="409.5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -3420,30 +3370,30 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="216" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="240">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -3452,30 +3402,30 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="360">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -3484,12 +3434,12 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="315">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -3498,16 +3448,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -3516,12 +3466,12 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="390">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -3530,16 +3480,16 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -3548,12 +3498,12 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="360" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="405">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
@@ -3562,16 +3512,16 @@
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -3580,30 +3530,30 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="360">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -3612,30 +3562,30 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="405">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -3644,30 +3594,30 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="345">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -3676,12 +3626,12 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="409.5" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -3690,16 +3640,16 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -3708,12 +3658,12 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="409.5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -3722,16 +3672,16 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -3740,27 +3690,27 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="409.5">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="G22" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -3770,30 +3720,30 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="409.5">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -3802,30 +3752,30 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="360">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -3834,26 +3784,26 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="360" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="405">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="G25" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -3862,12 +3812,12 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="301.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="301.5" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -3876,13 +3826,13 @@
         <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -3890,37 +3840,37 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="44.25" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3936,7 +3886,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3950,7 +3900,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3964,7 +3914,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3978,7 +3928,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3992,7 +3942,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4006,7 +3956,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4020,7 +3970,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>

--- a/Hometown Scenario.xlsx
+++ b/Hometown Scenario.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094D2B1B-5D38-43C3-974A-43C50C1B3B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Functional" sheetId="1" r:id="rId1"/>
@@ -12,18 +18,51 @@
     <sheet name="globalisation testing" sheetId="4" r:id="rId3"/>
     <sheet name="End to end " sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>CBT</author>
+  </authors>
+  <commentList>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>CBT:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="267">
   <si>
     <t>Sl no</t>
   </si>
@@ -80,6 +119,9 @@
   </si>
   <si>
     <t>Login</t>
+  </si>
+  <si>
+    <t>SignUP</t>
   </si>
   <si>
     <t>User has a valid credentials</t>
@@ -1119,18 +1161,12 @@
   <si>
     <t>intenalisation</t>
   </si>
-  <si>
-    <t>SignUP/login</t>
-  </si>
-  <si>
-    <t>Login/login</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1160,6 +1196,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -1242,7 +1291,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1515,32 +1564,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="13" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" customWidth="1"/>
+    <col min="7" max="13" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1578,12 +1627,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="90">
+    <row r="2" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>266</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1595,16 +1644,16 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>16</v>
@@ -1614,12 +1663,12 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="105">
+    <row r="3" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>267</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1628,16 +1677,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>15</v>
@@ -1650,33 +1699,33 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="105">
+    <row r="4" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>267</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>16</v>
@@ -1686,12 +1735,12 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="75">
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1700,19 +1749,19 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>16</v>
@@ -1722,33 +1771,33 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="90">
+    <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>16</v>
@@ -1758,33 +1807,33 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="90">
+    <row r="7" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>16</v>
@@ -1794,33 +1843,33 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="90">
+    <row r="8" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>16</v>
@@ -1830,33 +1879,33 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="75">
+    <row r="9" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>16</v>
@@ -1866,33 +1915,33 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="75">
+    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>16</v>
@@ -1902,33 +1951,33 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="75">
+    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>16</v>
@@ -1938,33 +1987,33 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="90">
+    <row r="12" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>16</v>
@@ -1974,33 +2023,33 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="90">
+    <row r="13" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>16</v>
@@ -2010,33 +2059,33 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="75">
+    <row r="14" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>16</v>
@@ -2046,12 +2095,12 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="75">
+    <row r="15" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -2060,19 +2109,19 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>16</v>
@@ -2082,12 +2131,12 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" ht="75">
+    <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
@@ -2096,19 +2145,19 @@
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>16</v>
@@ -2118,12 +2167,12 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="75">
+    <row r="17" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -2132,19 +2181,19 @@
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>16</v>
@@ -2154,33 +2203,33 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="75">
+    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>16</v>
@@ -2190,33 +2239,33 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="75">
+    <row r="19" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>16</v>
@@ -2226,33 +2275,33 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="90">
+    <row r="20" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>16</v>
@@ -2262,12 +2311,12 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="75">
+    <row r="21" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -2276,19 +2325,19 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>16</v>
@@ -2305,25 +2354,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
     <col min="13" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2361,21 +2410,21 @@
         <v>9</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="165">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2387,13 +2436,13 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -2402,30 +2451,30 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="135">
+    <row r="3" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -2434,30 +2483,30 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="150">
+    <row r="4" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -2466,30 +2515,30 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="180">
+    <row r="5" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>237</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -2498,30 +2547,30 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="180">
+    <row r="6" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -2530,30 +2579,30 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="120">
+    <row r="7" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -2562,30 +2611,30 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="105">
+    <row r="8" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2594,30 +2643,30 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="135">
+    <row r="9" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -2626,30 +2675,30 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="135">
+    <row r="10" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2658,12 +2707,12 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="135">
+    <row r="11" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -2672,16 +2721,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2690,7 +2739,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2704,7 +2753,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2718,7 +2767,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2732,7 +2781,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2746,7 +2795,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2760,7 +2809,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2774,7 +2823,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2788,7 +2837,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2802,7 +2851,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2816,7 +2865,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2830,7 +2879,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2844,7 +2893,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2858,7 +2907,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2872,7 +2921,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2886,7 +2935,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2900,7 +2949,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2914,7 +2963,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2928,7 +2977,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2945,32 +2994,33 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9FBD3F-B2A1-4743-A593-FD7FB3807004}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2980,30 +3030,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B56" sqref="B52:B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="53.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="53.5546875" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30">
+    <row r="1" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3041,21 +3091,21 @@
         <v>9</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="330">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -3064,16 +3114,16 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -3082,12 +3132,12 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="285">
+    <row r="3" spans="1:15" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -3096,16 +3146,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -3114,30 +3164,30 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="345">
+    <row r="4" spans="1:15" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -3146,12 +3196,12 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="345">
+    <row r="5" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -3160,16 +3210,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -3178,30 +3228,30 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="300">
+    <row r="6" spans="1:15" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -3210,30 +3260,30 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="409.5">
+    <row r="7" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -3242,12 +3292,12 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="409.5">
+    <row r="8" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -3256,16 +3306,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -3274,30 +3324,30 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="330">
+    <row r="9" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -3306,12 +3356,12 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="409.5">
+    <row r="10" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -3320,16 +3370,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -3338,30 +3388,30 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="409.5">
+    <row r="11" spans="1:15" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -3370,30 +3420,30 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="240">
+    <row r="12" spans="1:15" ht="216" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -3402,30 +3452,30 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="360">
+    <row r="13" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -3434,12 +3484,12 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="315">
+    <row r="14" spans="1:15" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -3448,16 +3498,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -3466,12 +3516,12 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="390">
+    <row r="15" spans="1:15" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -3480,16 +3530,16 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -3498,12 +3548,12 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="405">
+    <row r="16" spans="1:15" ht="360" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
@@ -3512,16 +3562,16 @@
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -3530,30 +3580,30 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="360">
+    <row r="17" spans="1:12" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -3562,30 +3612,30 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="405">
+    <row r="18" spans="1:12" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -3594,30 +3644,30 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="345">
+    <row r="19" spans="1:12" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -3626,12 +3676,12 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="409.5" customHeight="1">
+    <row r="20" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -3640,16 +3690,16 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="G20" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -3658,12 +3708,12 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="409.5">
+    <row r="21" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -3672,16 +3722,16 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -3690,27 +3740,27 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="409.5">
+    <row r="22" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -3720,30 +3770,30 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="409.5">
+    <row r="23" spans="1:12" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -3752,30 +3802,30 @@
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="360">
+    <row r="24" spans="1:12" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -3784,26 +3834,26 @@
       </c>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="405">
+    <row r="25" spans="1:12" ht="360" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -3812,12 +3862,12 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="301.5" customHeight="1">
+    <row r="26" spans="1:12" ht="301.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -3826,13 +3876,13 @@
         <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -3840,37 +3890,37 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="44.25" customHeight="1">
+    <row r="27" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3886,7 +3936,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3900,7 +3950,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3914,7 +3964,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3928,7 +3978,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3942,7 +3992,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3956,7 +4006,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3970,7 +4020,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>

--- a/Hometown Scenario.xlsx
+++ b/Hometown Scenario.xlsx
@@ -13,7 +13,6 @@
     <sheet name="End to end " sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="269">
   <si>
     <t>Sl no</t>
   </si>
@@ -107,9 +106,6 @@
   </si>
   <si>
     <t>Error message is displayed</t>
-  </si>
-  <si>
-    <t>Store Locator</t>
   </si>
   <si>
     <t>To check that Store locator pageis  display with valid details</t>
@@ -1124,6 +1120,12 @@
   </si>
   <si>
     <t>Login/login</t>
+  </si>
+  <si>
+    <t>Store Locator/login</t>
+  </si>
+  <si>
+    <t>My account/login</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1517,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1525,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1583,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1598,7 +1600,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>22</v>
@@ -1619,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1634,7 +1636,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>21</v>
@@ -1655,22 +1657,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>26</v>
@@ -1691,7 +1693,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>267</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1700,19 +1702,19 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>16</v>
@@ -1727,25 +1729,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>23</v>
@@ -1763,28 +1765,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>268</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>16</v>
@@ -1799,28 +1801,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>16</v>
@@ -1835,28 +1837,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>16</v>
@@ -1871,28 +1873,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>16</v>
@@ -1907,28 +1909,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>16</v>
@@ -1943,28 +1945,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>16</v>
@@ -1979,28 +1981,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>16</v>
@@ -2015,28 +2017,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>16</v>
@@ -2051,7 +2053,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -2060,19 +2062,19 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>16</v>
@@ -2087,7 +2089,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
@@ -2096,19 +2098,19 @@
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>16</v>
@@ -2123,7 +2125,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>12</v>
@@ -2132,19 +2134,19 @@
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>16</v>
@@ -2159,28 +2161,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>16</v>
@@ -2195,28 +2197,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>16</v>
@@ -2231,28 +2233,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>16</v>
@@ -2267,7 +2269,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -2276,19 +2278,19 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>16</v>
@@ -2361,13 +2363,13 @@
         <v>9</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="165">
@@ -2375,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2387,13 +2389,13 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -2407,25 +2409,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -2439,25 +2441,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -2471,25 +2473,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -2503,25 +2505,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -2535,25 +2537,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -2567,25 +2569,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2599,25 +2601,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -2631,25 +2633,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2663,7 +2665,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
@@ -2672,16 +2674,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2960,17 +2962,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3041,13 +3043,13 @@
         <v>9</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="330">
@@ -3055,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -3064,16 +3066,16 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -3087,7 +3089,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -3096,16 +3098,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -3119,25 +3121,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -3151,7 +3153,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -3160,16 +3162,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -3183,25 +3185,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -3215,25 +3217,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -3247,7 +3249,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -3256,16 +3258,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -3279,25 +3281,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -3311,7 +3313,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -3320,16 +3322,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -3343,25 +3345,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -3375,25 +3377,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -3407,25 +3409,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -3439,7 +3441,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -3448,16 +3450,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -3471,7 +3473,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -3480,16 +3482,16 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -3503,7 +3505,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
@@ -3512,16 +3514,16 @@
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -3535,25 +3537,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -3567,25 +3569,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -3599,25 +3601,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -3631,7 +3633,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -3640,16 +3642,16 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -3663,7 +3665,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -3672,16 +3674,16 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -3695,22 +3697,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="G22" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -3725,25 +3727,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -3757,25 +3759,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -3789,21 +3791,21 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="G25" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -3817,7 +3819,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -3826,13 +3828,13 @@
         <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -3845,25 +3847,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>

--- a/Hometown Scenario.xlsx
+++ b/Hometown Scenario.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="270">
   <si>
     <t>Sl no</t>
   </si>
@@ -273,9 +273,6 @@
     <t>Home Décor page is displayed</t>
   </si>
   <si>
-    <t>Tableware</t>
-  </si>
-  <si>
     <t>To verify that TableWare  page is displayed</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
   </si>
   <si>
     <t>Tableware page is displayed with valid data</t>
-  </si>
-  <si>
-    <t>Kitchware</t>
   </si>
   <si>
     <t>To verify that Kitchenware page is displayed</t>
@@ -1126,6 +1120,15 @@
   </si>
   <si>
     <t>My account/login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Furniture/login </t>
+  </si>
+  <si>
+    <t>Kitchware/login</t>
+  </si>
+  <si>
+    <t>Tableware/login</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1527,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1585,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -1600,7 +1603,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>22</v>
@@ -1621,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -1636,7 +1639,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>21</v>
@@ -1657,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1672,7 +1675,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>26</v>
@@ -1693,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -1702,13 +1705,13 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>29</v>
@@ -1729,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
@@ -1738,13 +1741,13 @@
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>34</v>
@@ -1765,7 +1768,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
@@ -1774,13 +1777,13 @@
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>37</v>
@@ -1810,13 +1813,13 @@
         <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>42</v>
@@ -1846,13 +1849,13 @@
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>46</v>
@@ -1882,13 +1885,13 @@
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>53</v>
@@ -1918,13 +1921,13 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>59</v>
@@ -1954,13 +1957,13 @@
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>72</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>60</v>
@@ -1990,13 +1993,13 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>63</v>
@@ -2026,13 +2029,13 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>70</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>66</v>
@@ -2062,13 +2065,13 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>73</v>
@@ -2098,13 +2101,13 @@
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>77</v>
@@ -2134,13 +2137,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>80</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>81</v>
@@ -2161,7 +2164,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>44</v>
@@ -2170,19 +2173,19 @@
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>16</v>
@@ -2197,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>87</v>
+        <v>268</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>44</v>
@@ -2206,19 +2209,19 @@
         <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>16</v>
@@ -2233,28 +2236,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>267</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>16</v>
@@ -2269,7 +2272,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -2278,19 +2281,19 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>16</v>
@@ -2363,13 +2366,13 @@
         <v>9</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="165">
@@ -2377,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -2389,13 +2392,13 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -2409,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>44</v>
@@ -2418,16 +2421,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -2441,7 +2444,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
@@ -2450,16 +2453,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -2473,7 +2476,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>44</v>
@@ -2482,16 +2485,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -2505,7 +2508,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>44</v>
@@ -2514,16 +2517,16 @@
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -2537,7 +2540,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>44</v>
@@ -2546,16 +2549,16 @@
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>246</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -2578,16 +2581,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2610,16 +2613,16 @@
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -2633,7 +2636,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>44</v>
@@ -2642,16 +2645,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2674,16 +2677,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2962,17 +2965,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3043,13 +3046,13 @@
         <v>9</v>
       </c>
       <c r="M1" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="330">
@@ -3057,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
@@ -3066,16 +3069,16 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -3089,7 +3092,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
@@ -3098,16 +3101,16 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -3121,7 +3124,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
@@ -3130,16 +3133,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -3153,7 +3156,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -3162,16 +3165,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -3185,25 +3188,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -3217,25 +3220,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -3249,7 +3252,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -3258,16 +3261,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -3281,7 +3284,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>44</v>
@@ -3290,16 +3293,16 @@
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -3313,7 +3316,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -3322,16 +3325,16 @@
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -3354,16 +3357,16 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -3386,16 +3389,16 @@
         <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -3409,7 +3412,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>44</v>
@@ -3418,16 +3421,16 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -3441,7 +3444,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -3450,16 +3453,16 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -3473,7 +3476,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
@@ -3482,16 +3485,16 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -3505,7 +3508,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
@@ -3514,16 +3517,16 @@
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -3537,25 +3540,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="G17" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -3569,25 +3572,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -3604,22 +3607,22 @@
         <v>68</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="G19" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -3633,7 +3636,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>12</v>
@@ -3642,16 +3645,16 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -3674,16 +3677,16 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -3697,7 +3700,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>44</v>
@@ -3706,13 +3709,13 @@
         <v>13</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -3727,25 +3730,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="G23" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -3759,7 +3762,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>44</v>
@@ -3768,16 +3771,16 @@
         <v>13</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -3791,21 +3794,21 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -3819,7 +3822,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -3828,13 +3831,13 @@
         <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="G26" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -3847,7 +3850,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>44</v>
@@ -3856,16 +3859,16 @@
         <v>13</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
